--- a/docs/ST4/ST4_12.11.2024_output.xlsx
+++ b/docs/ST4/ST4_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1014 +505,1201 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731442260.014834</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731442267.3094635</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442260.014834.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442267.3094635.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>136.42</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>135.7</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.7199999999999989</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731442269.3675828</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731442272.114409</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442269.3675828.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442272.114409.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>135.53</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.45</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.08000000000001251</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731442274.4603903</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731442274.7943661</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442274.4603903.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731442274.7943661.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>134.74</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>135.18</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731442278.9914615</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731442280.3661907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731442278.9914615.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731442280.3661907.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7046</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7035</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731442290.820588</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731442296.9026062</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731442290.820588.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731442296.9026062.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7002</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7002.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731442300.8253522</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731442302.9234428</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442300.8253522.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442302.9234428.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>489.9</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>492.45</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-2.550000000000011</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731442312.8600206</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731442315.9751816</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442312.8600206.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442315.9751816.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>488.85</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>487</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-1.850000000000023</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731442315.989145</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731442316.4928246</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442315.989145.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442316.4928246.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>487</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>487.35</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.3500000000000227</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731442317.9491374</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731442318.8725877</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442317.9491374.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442318.8725877.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>486.15</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>486.25</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731442319.4567535</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731442320.983228</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442319.4567535.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731442320.983228.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>484.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>484.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731442320.997192</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731442320.997192.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731442320.997192.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>484.8</v>
       </c>
-      <c r="J13" t="n">
-        <v>484.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731442322.8678463</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731442322.9986036</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442322.8678463.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442322.9986036.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>942.4</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>942</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731442323.1549962</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731442323.3321714</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442323.1549962.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442323.3321714.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>943.8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>941.8</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731442323.9128466</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731442325.0945976</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442323.9128466.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442325.0945976.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>946</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>945.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731442327.4574912</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731442328.2968621</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442327.4574912.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442328.2968621.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>949.2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>947.8</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731442335.487471</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731442337.3824587</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442335.487471.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442337.3824587.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>937</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>935</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731442340.1389592</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731442341.6364775</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442340.1389592.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731442341.6364775.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>934.6</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>935.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731442345.3657894</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731442347.8234744</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442345.3657894.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442347.8234744.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>37.995</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>38.005</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731442348.5094</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731442349.8378305</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442348.5094.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442349.8378305.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>37.93</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>37.89</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731442356.2304854</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731442357.6318264</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442356.2304854.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731442357.6318264.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>38.13</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>38.13</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1505,1756 +1707,2080 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731442370.1959138</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731442371.5958135</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442370.1959138.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442371.5958135.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1244.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1243</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731442373.9655728</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731442375.1489048</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442373.9655728.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442375.1489048.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1242.4</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1243.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.199999999999818</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731442375.8789115</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731442375.9643915</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442375.8789115.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442375.9643915.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1241.2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1242</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731442376.1665196</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731442376.2548592</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442376.1665196.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442376.2548592.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1240.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1241.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.6000000000001364</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731442377.3124528</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731442378.0294993</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442377.3124528.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442378.0294993.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1240.6</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1241</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731442381.5766757</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731442381.9206913</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442381.5766757.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442381.9206913.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1239.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1239</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731442382.0389822</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731442386.041366</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442382.0389822.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731442386.041366.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1237</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1235</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731442396.9967406</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731442397.1926904</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731442396.9967406.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731442397.1926904.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>80.81999999999999</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>80.86</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731442399.7247488</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731442400.874901</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731442399.7247488.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731442400.874901.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>80.84</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>80.79000000000001</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731442403.0281477</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731442403.6364882</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731442403.0281477.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731442403.6364882.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>80.72</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>80.70999999999999</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731442404.1831324</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731442404.452435</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731442404.1831324.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731442404.452435.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>80.3</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>80.48</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731442410.9119718</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731442411.4029734</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731442410.9119718.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731442411.4029734.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>80.95</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>80.94</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731442420.4899352</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731442420.683702</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442420.4899352.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442420.683702.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>14.436</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>14.441</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.005000000000000782</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731442421.6396205</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731442422.2253666</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442421.6396205.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442422.2253666.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>14.535</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>14.484</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.05100000000000016</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731442425.623039</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731442425.6737516</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442425.623039.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442425.6737516.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>14.409</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>14.42</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.01099999999999923</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731442426.5427423</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731442428.2965245</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442426.5427423.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442428.2965245.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>14.392</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>14.393</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.001000000000001222</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731442429.6888406</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731442431.018667</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442429.6888406.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731442431.018667.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>14.342</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>14.355</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.0129999999999999</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731442443.1079338</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731442443.5246863</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442443.1079338.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442443.5246863.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>106.68</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>106.82</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731442445.0737941</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731442446.0213253</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442445.0737941.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442446.0213253.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>106.4</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>106.27</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.1300000000000097</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731442447.5272708</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731442448.7583716</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442447.5272708.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442448.7583716.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>106.07</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>105.95</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.1199999999999903</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731442452.8184903</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731442453.2902348</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442452.8184903.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731442453.2902348.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>105.77</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>105.9</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1300000000000097</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731442464.9847276</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731442466.432718</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731442464.9847276.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731442466.432718.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>349.13</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>349.16</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.03000000000002956</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731442468.7109208</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731442473.1482909</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731442468.7109208.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731442473.1482909.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>348.73</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>346.44</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-2.29000000000002</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731442473.1652453</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731442476.1607082</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731442473.1652453.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731442476.1607082.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>346.44</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>347.52</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-1.079999999999984</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731442483.3473842</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731442483.4417312</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442483.3473842.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442483.4417312.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>2783.05</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>2785.8</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>2.75</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731442484.8422575</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731442485.980577</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442484.8422575.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442485.980577.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>2781</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>2787.45</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>6.449999999999818</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731442487.2598789</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731442488.0018582</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442487.2598789.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442488.0018582.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>2781.65</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>2787.05</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>5.400000000000091</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731442489.5059805</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731442490.7689939</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442489.5059805.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442490.7689939.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>2781.9</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>2780.7</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-1.200000000000273</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731442491.1959534</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731442491.920311</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442491.1959534.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442491.920311.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>2775.45</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>2776.2</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731442495.434289</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731442495.6539438</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442495.434289.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731442495.6539438.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>2773.3</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>2776.35</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>3.049999999999727</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731442500.040309</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731442501.174934</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442500.040309.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442501.174934.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>597.9</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>598.1</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731442504.8016198</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731442505.037509</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442504.8016198.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442505.037509.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>590.9</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>591.8</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.8999999999999773</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731442506.1914382</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731442508.141092</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442506.1914382.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442508.141092.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>590.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>593.1</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>2.700000000000045</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731442517.924035</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731442518.5916955</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442517.924035.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442518.5916955.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>591</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>591.9</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.8999999999999773</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731442520.268539</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731442521.184421</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442520.268539.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/TATN1731442521.184421.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>589.6</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>590</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731442521.8138762</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731442521.8138762.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+          <t>./test_images/TATN1731442521.8138762.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>588.9</v>
       </c>
-      <c r="J58" t="n">
-        <v>588.9</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
+      <c r="L58" t="n">
+        <v>588.8</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -3268,7 +3794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3297,6 +3823,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3313,6 +3849,12 @@
       <c r="D2" t="n">
         <v>-0.05714285714287014</v>
       </c>
+      <c r="E2" t="n">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3329,6 +3871,12 @@
       <c r="D3" t="n">
         <v>2.866666666666561</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3345,6 +3893,12 @@
       <c r="D4" t="n">
         <v>0.5</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3353,13 +3907,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4.350000000000023</v>
+        <v>-4.050000000000011</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7250000000000038</v>
+        <v>-0.6750000000000019</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.8300000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="6">
@@ -3369,13 +3929,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.699999999999932</v>
+        <v>4.599999999999909</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.783333333333322</v>
+        <v>0.7666666666666515</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7799999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -3393,6 +3959,12 @@
       <c r="D7" t="n">
         <v>0.01620000000000026</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3409,6 +3981,12 @@
       <c r="D8" t="n">
         <v>0.03400000000000318</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3425,6 +4003,12 @@
       <c r="D9" t="n">
         <v>0.004999999999999005</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3441,6 +4025,12 @@
       <c r="D10" t="n">
         <v>-1.113333333333325</v>
       </c>
+      <c r="E10" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.32</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3457,6 +4047,12 @@
       <c r="D11" t="n">
         <v>-0.1200000000000045</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3473,6 +4069,12 @@
       <c r="D12" t="n">
         <v>-0.01666666666666809</v>
       </c>
+      <c r="E12" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3489,6 +4091,12 @@
       <c r="D13" t="n">
         <v>5.75</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3503,6 +4111,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
